--- a/stock_predictor_ai/data/company_sentiment_ready/ALL_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/ALL_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8074"/>
+  <dimension ref="A1:B8128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65033,6 +65033,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8075">
+      <c r="A8075" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8076">
+      <c r="A8076" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B8076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8077">
+      <c r="A8077" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B8077" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8078">
+      <c r="A8078" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B8078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8079">
+      <c r="A8079" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B8079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8080">
+      <c r="A8080" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B8080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8081">
+      <c r="A8081" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B8081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8082">
+      <c r="A8082" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B8082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8083">
+      <c r="A8083" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B8083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8084">
+      <c r="A8084" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B8084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8085">
+      <c r="A8085" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B8085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8086">
+      <c r="A8086" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B8086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8087">
+      <c r="A8087" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B8087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8088">
+      <c r="A8088" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B8088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8089">
+      <c r="A8089" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B8089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8090">
+      <c r="A8090" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B8090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8091">
+      <c r="A8091" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B8091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8092">
+      <c r="A8092" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B8092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8093">
+      <c r="A8093" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B8093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8094">
+      <c r="A8094" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B8094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8095">
+      <c r="A8095" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B8095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8096">
+      <c r="A8096" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B8096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8097">
+      <c r="A8097" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B8097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8098">
+      <c r="A8098" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B8098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8099">
+      <c r="A8099" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B8099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8100">
+      <c r="A8100" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B8100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8101">
+      <c r="A8101" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B8101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8102">
+      <c r="A8102" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B8102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8103">
+      <c r="A8103" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B8103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8104">
+      <c r="A8104" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B8104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8105">
+      <c r="A8105" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B8105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8106">
+      <c r="A8106" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B8106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8107">
+      <c r="A8107" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B8107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8108">
+      <c r="A8108" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B8108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8109">
+      <c r="A8109" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B8109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8110">
+      <c r="A8110" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B8110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8111">
+      <c r="A8111" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B8111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8112">
+      <c r="A8112" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B8112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8113">
+      <c r="A8113" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B8113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8114">
+      <c r="A8114" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B8114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8115">
+      <c r="A8115" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B8115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8116">
+      <c r="A8116" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B8116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8117">
+      <c r="A8117" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B8117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8118">
+      <c r="A8118" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B8118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8119">
+      <c r="A8119" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B8119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8120">
+      <c r="A8120" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B8120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8121">
+      <c r="A8121" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B8121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8122">
+      <c r="A8122" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B8122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8123">
+      <c r="A8123" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B8123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8124">
+      <c r="A8124" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B8124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8125">
+      <c r="A8125" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B8125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8126">
+      <c r="A8126" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B8126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8127">
+      <c r="A8127" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B8127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8128">
+      <c r="A8128" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B8128" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
